--- a/pred_ohlcv/54_21/2020-01-16 TRUE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 TRUE ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>14906.60922650056</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>14906.60922650056</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>14906.60922650056</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>14906.60922650056</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>14908.71892650056</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>14908.71892650056</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>15660.93002650056</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>20817.72082650056</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>20807.73082650056</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>20807.73082650056</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>20807.73082650056</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>20807.73082650056</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>20810.81172650056</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>20370.86392650056</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>20648.93292650056</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>20652.07172650056</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-43523.21637349944</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-41936.13287349944</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-40551.34907349944</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-103446.2056734994</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-102778.1266734994</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-103178.0956734994</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-102130.7320734994</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-102431.5860734994</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-102431.5860734994</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-102411.5860734994</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-102411.5860734994</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-102300.5467734994</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-99286.37307349945</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-50101.16917349945</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-19634.43777349945</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-29553.60327349945</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-22064.76667349945</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-20953.79657349945</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-20953.79657349945</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-21138.64397349945</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-20363.05427349945</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-17619.27027349945</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-17619.27027349945</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-12279.7610676007</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-12660.9409676007</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-12032.5494676007</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-11518.0428676007</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-11217.99346760071</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-11373.74346760071</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-10389.3304676007</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-10967.3204676007</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-10442.3204676007</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-10464.8556676007</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-10928.80956760071</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-11228.80956760071</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-10795.6044676007</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-11081.9544676007</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-11081.9544676007</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-6305.057967600704</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-6305.057967600704</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-6303.057967600704</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-6355.602167600704</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-6169.602167600704</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-4341.987467600704</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-4521.422267600704</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-4571.422267600704</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3811.422267600704</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-3753.924267600704</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-2983.296656621085</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>122.7762433789153</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3347.198554363121</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3343.96126074059</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4063.621206695282</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>7215.274406695282</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>6916.250606695282</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>7838.657906695282</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>7838.657906695282</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>7638.657906695282</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>8164.348306695281</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>8291.348306695281</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>8106.684706695281</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 TRUE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 TRUE ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>14906.60922650056</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>14906.60922650056</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>14906.60922650056</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>14906.60922650056</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>14908.71892650056</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>14908.71892650056</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>15660.93002650056</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>20817.72082650056</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>20807.73082650056</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>20807.73082650056</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>20807.73082650056</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>20807.73082650056</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>20810.81172650056</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>20648.93292650056</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>20652.07172650056</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-103446.2056734994</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-102778.1266734994</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-102431.5860734994</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-102411.5860734994</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-102411.5860734994</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-102300.5467734994</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-99286.37307349945</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-50101.16917349945</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-49410.81917349945</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-19634.43777349945</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-29553.60327349945</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-22064.76667349945</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-20953.79657349945</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-20953.79657349945</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-21138.64397349945</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-20363.05427349945</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-17619.27027349945</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-17619.27027349945</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-12215.8110676007</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-11373.74346760071</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-9507.330467600705</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-10389.3304676007</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-10967.3204676007</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-10442.3204676007</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-10464.8556676007</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-10928.80956760071</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-11228.80956760071</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-11019.7795676007</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-10795.6044676007</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-11081.9544676007</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-6305.057967600704</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-4341.987467600704</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-4521.422267600704</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-4571.422267600704</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3811.422267600704</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-3753.924267600704</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3080.759656621085</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3130.759656621085</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-2983.296656621085</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-2983.296656621085</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>189.7762433789153</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3347.198554363121</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3343.96126074059</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4063.621206695282</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>7215.274406695282</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>6916.250606695282</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>7838.657906695282</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>7838.657906695282</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>7638.657906695282</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>8164.348306695281</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>8291.348306695281</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>8106.684706695281</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
